--- a/data/pca/factorExposure/factorExposure_2017-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02329343501599303</v>
+        <v>-0.01497896862130085</v>
       </c>
       <c r="C2">
-        <v>-0.0002119388303704389</v>
+        <v>0.03857068697166948</v>
       </c>
       <c r="D2">
-        <v>-0.01615876313534032</v>
+        <v>-0.02842022516084495</v>
       </c>
       <c r="E2">
-        <v>-0.01084087664305727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03492420352783743</v>
+      </c>
+      <c r="F2">
+        <v>-0.02314968429543567</v>
+      </c>
+      <c r="G2">
+        <v>0.01745018545004892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01293820954159549</v>
+        <v>-0.0522030540484643</v>
       </c>
       <c r="C3">
-        <v>0.05601850379921403</v>
+        <v>0.07471769711314791</v>
       </c>
       <c r="D3">
-        <v>-0.006999057758858738</v>
+        <v>-0.01471549183588588</v>
       </c>
       <c r="E3">
-        <v>0.003662741187767225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09788461448527805</v>
+      </c>
+      <c r="F3">
+        <v>-0.04587191548515803</v>
+      </c>
+      <c r="G3">
+        <v>0.07916123945590585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02252046151167689</v>
+        <v>-0.05447087958899356</v>
       </c>
       <c r="C4">
-        <v>0.01860485313832171</v>
+        <v>0.06547175680693686</v>
       </c>
       <c r="D4">
-        <v>-0.06151585220615265</v>
+        <v>-0.02279506383928074</v>
       </c>
       <c r="E4">
-        <v>0.009652544512401242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009302487055092795</v>
+      </c>
+      <c r="F4">
+        <v>-0.01386161940280298</v>
+      </c>
+      <c r="G4">
+        <v>0.04638838670639879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01557715286993</v>
+        <v>-0.031749186022433</v>
       </c>
       <c r="C6">
-        <v>0.02693944791583969</v>
+        <v>0.05410821353666212</v>
       </c>
       <c r="D6">
-        <v>-0.08310704126332094</v>
+        <v>-0.01633028027140198</v>
       </c>
       <c r="E6">
-        <v>-0.00750228944212908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009273984356789671</v>
+      </c>
+      <c r="F6">
+        <v>-0.01463345649673659</v>
+      </c>
+      <c r="G6">
+        <v>0.02385844852119669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01051911512961034</v>
+        <v>-0.01993831354351978</v>
       </c>
       <c r="C7">
-        <v>0.007257640596301864</v>
+        <v>0.03792813886807787</v>
       </c>
       <c r="D7">
-        <v>-0.03964264384078039</v>
+        <v>-0.01248398773883742</v>
       </c>
       <c r="E7">
-        <v>0.06550317838396683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01177769978162634</v>
+      </c>
+      <c r="F7">
+        <v>-0.006435691014155994</v>
+      </c>
+      <c r="G7">
+        <v>0.07460185134480499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-7.168230901711491e-05</v>
+        <v>0.001870962653226612</v>
       </c>
       <c r="C8">
-        <v>-0.009340685440312132</v>
+        <v>0.01538060162111595</v>
       </c>
       <c r="D8">
-        <v>-0.01714646352590004</v>
+        <v>-0.00377059722870202</v>
       </c>
       <c r="E8">
-        <v>0.003735531595095979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01799338698320676</v>
+      </c>
+      <c r="F8">
+        <v>-0.01326288846878185</v>
+      </c>
+      <c r="G8">
+        <v>0.02565004512393216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0147542266707102</v>
+        <v>-0.0279726799105814</v>
       </c>
       <c r="C9">
-        <v>0.01643265836173482</v>
+        <v>0.04398678046489544</v>
       </c>
       <c r="D9">
-        <v>-0.04484391393177195</v>
+        <v>-0.01579639329546693</v>
       </c>
       <c r="E9">
-        <v>0.0001852218383573322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01290229664798256</v>
+      </c>
+      <c r="F9">
+        <v>-0.01733925714186745</v>
+      </c>
+      <c r="G9">
+        <v>0.036359270375558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007887639233554332</v>
+        <v>-0.09070047032192018</v>
       </c>
       <c r="C10">
-        <v>0.1372506841311331</v>
+        <v>-0.1832505200515605</v>
       </c>
       <c r="D10">
-        <v>0.1331941508423742</v>
+        <v>0.01848238122872976</v>
       </c>
       <c r="E10">
-        <v>0.02504108618585715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0177372017099442</v>
+      </c>
+      <c r="F10">
+        <v>0.01482033822161231</v>
+      </c>
+      <c r="G10">
+        <v>0.04017243483443549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.000198716538052355</v>
+        <v>-0.03536540025766439</v>
       </c>
       <c r="C11">
-        <v>0.006635389991980259</v>
+        <v>0.05430491888093871</v>
       </c>
       <c r="D11">
-        <v>-0.04370254086428178</v>
+        <v>-0.001614866303041853</v>
       </c>
       <c r="E11">
-        <v>-0.01359721097281798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.004126906058746175</v>
+      </c>
+      <c r="F11">
+        <v>-0.02204645215933643</v>
+      </c>
+      <c r="G11">
+        <v>0.01869997938115319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005627306711283106</v>
+        <v>-0.03270697900420359</v>
       </c>
       <c r="C12">
-        <v>0.01614850536248633</v>
+        <v>0.04601666186556565</v>
       </c>
       <c r="D12">
-        <v>-0.04631059970824727</v>
+        <v>-0.005674542098398737</v>
       </c>
       <c r="E12">
-        <v>-0.007041947124777484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005312918355799029</v>
+      </c>
+      <c r="F12">
+        <v>-0.006368453878390502</v>
+      </c>
+      <c r="G12">
+        <v>0.02232446678588508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02127026967680901</v>
+        <v>-0.01345863101073508</v>
       </c>
       <c r="C13">
-        <v>0.01473856926204825</v>
+        <v>0.03349727501546131</v>
       </c>
       <c r="D13">
-        <v>-0.01048761313658018</v>
+        <v>-0.02468682947564103</v>
       </c>
       <c r="E13">
-        <v>-0.007225327671431698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02816389787050042</v>
+      </c>
+      <c r="F13">
+        <v>-0.01066159512228569</v>
+      </c>
+      <c r="G13">
+        <v>0.03030441011528725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006937885501699237</v>
+        <v>-0.00857866505090423</v>
       </c>
       <c r="C14">
-        <v>0.01317715166240681</v>
+        <v>0.02682514314787096</v>
       </c>
       <c r="D14">
-        <v>-0.01150660453722965</v>
+        <v>-0.008350482011162969</v>
       </c>
       <c r="E14">
-        <v>0.01240316079027014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005103521934486099</v>
+      </c>
+      <c r="F14">
+        <v>0.001077687626450896</v>
+      </c>
+      <c r="G14">
+        <v>0.03830532955072261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0007153488329600456</v>
+        <v>-0.03209366322785711</v>
       </c>
       <c r="C16">
-        <v>0.01283652874619246</v>
+        <v>0.04449973404102184</v>
       </c>
       <c r="D16">
-        <v>-0.0483382477747322</v>
+        <v>-0.001198588696669365</v>
       </c>
       <c r="E16">
-        <v>-0.008248310879524955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004555478411777537</v>
+      </c>
+      <c r="F16">
+        <v>-0.007498824728216461</v>
+      </c>
+      <c r="G16">
+        <v>0.02237263744716799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01231034234065407</v>
+        <v>-0.02993544597407925</v>
       </c>
       <c r="C19">
-        <v>0.01990072368773361</v>
+        <v>0.05508518965466074</v>
       </c>
       <c r="D19">
-        <v>-0.02879504301223689</v>
+        <v>-0.01568880495632485</v>
       </c>
       <c r="E19">
-        <v>-4.516861160110245e-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05166615674885885</v>
+      </c>
+      <c r="F19">
+        <v>-0.02854404776250613</v>
+      </c>
+      <c r="G19">
+        <v>0.04066086371558993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01005827673684704</v>
+        <v>-0.01252976761366996</v>
       </c>
       <c r="C20">
-        <v>0.003120104223054565</v>
+        <v>0.03629327205441153</v>
       </c>
       <c r="D20">
-        <v>-0.01313520625305091</v>
+        <v>-0.01315345077998826</v>
       </c>
       <c r="E20">
-        <v>0.002477503104431735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02433273549789093</v>
+      </c>
+      <c r="F20">
+        <v>9.761174112297691e-05</v>
+      </c>
+      <c r="G20">
+        <v>0.03505640675142035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01348028714698437</v>
+        <v>-0.01453686209387524</v>
       </c>
       <c r="C21">
-        <v>0.03306052715707902</v>
+        <v>0.03442073762222478</v>
       </c>
       <c r="D21">
-        <v>-0.01331143689432126</v>
+        <v>-0.01617709618938738</v>
       </c>
       <c r="E21">
-        <v>0.02043964274291109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03455076744840647</v>
+      </c>
+      <c r="F21">
+        <v>-0.008563809353569431</v>
+      </c>
+      <c r="G21">
+        <v>0.05808846633631782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004758024826352694</v>
+        <v>-0.0265181548708547</v>
       </c>
       <c r="C24">
-        <v>0.007718807833751607</v>
+        <v>0.04738869646118584</v>
       </c>
       <c r="D24">
-        <v>-0.04545555085310179</v>
+        <v>-0.00647300822740505</v>
       </c>
       <c r="E24">
-        <v>-0.009558695979979985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001401901806660639</v>
+      </c>
+      <c r="F24">
+        <v>-0.01874730483089919</v>
+      </c>
+      <c r="G24">
+        <v>0.02087441167468891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01098503636380725</v>
+        <v>-0.04347344882158027</v>
       </c>
       <c r="C25">
-        <v>0.02355920202761952</v>
+        <v>0.05513030723759829</v>
       </c>
       <c r="D25">
-        <v>-0.04301068902280788</v>
+        <v>-0.0103920045932112</v>
       </c>
       <c r="E25">
-        <v>-0.008300925941725752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008320493976000492</v>
+      </c>
+      <c r="F25">
+        <v>-0.01402025611859405</v>
+      </c>
+      <c r="G25">
+        <v>0.02619479214517808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02273552035114257</v>
+        <v>-0.009539385031523399</v>
       </c>
       <c r="C26">
-        <v>0.007265223233115179</v>
+        <v>0.009539842673759288</v>
       </c>
       <c r="D26">
-        <v>0.005470291624729403</v>
+        <v>-0.02368006063350761</v>
       </c>
       <c r="E26">
-        <v>0.008829642381490435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0100064711858897</v>
+      </c>
+      <c r="F26">
+        <v>-0.001221972448685766</v>
+      </c>
+      <c r="G26">
+        <v>0.02862702615490306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0244360993975945</v>
+        <v>-0.1169138311752733</v>
       </c>
       <c r="C28">
-        <v>0.2039877064976957</v>
+        <v>-0.2260496181362219</v>
       </c>
       <c r="D28">
-        <v>0.1929993685681782</v>
+        <v>0.009721569099289376</v>
       </c>
       <c r="E28">
-        <v>0.03762234859804475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.008943452100741971</v>
+      </c>
+      <c r="F28">
+        <v>0.006600803502798578</v>
+      </c>
+      <c r="G28">
+        <v>0.05700235345852034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007141528131465564</v>
+        <v>-0.0135207732611155</v>
       </c>
       <c r="C29">
-        <v>0.01809063960631672</v>
+        <v>0.0206443896821946</v>
       </c>
       <c r="D29">
-        <v>-0.009349523694260087</v>
+        <v>-0.007037274458730835</v>
       </c>
       <c r="E29">
-        <v>0.00697309744524093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.005568940912190434</v>
+      </c>
+      <c r="F29">
+        <v>0.01056610482168573</v>
+      </c>
+      <c r="G29">
+        <v>0.02879187265241203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02417966887235989</v>
+        <v>-0.04078687331780265</v>
       </c>
       <c r="C30">
-        <v>0.0133875474910771</v>
+        <v>0.07126784750488513</v>
       </c>
       <c r="D30">
-        <v>-0.06105320726520424</v>
+        <v>-0.02724307952336033</v>
       </c>
       <c r="E30">
-        <v>-0.06624432732752367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02987226097342671</v>
+      </c>
+      <c r="F30">
+        <v>-0.04085094789255381</v>
+      </c>
+      <c r="G30">
+        <v>0.002473927805805983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006583483281505469</v>
+        <v>-0.04501028797385107</v>
       </c>
       <c r="C31">
-        <v>0.04677459217106483</v>
+        <v>0.03192085102913829</v>
       </c>
       <c r="D31">
-        <v>-0.03457437593524468</v>
+        <v>-0.002928018124543694</v>
       </c>
       <c r="E31">
-        <v>0.002915616196545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01020524916427965</v>
+      </c>
+      <c r="F31">
+        <v>0.03832741050629822</v>
+      </c>
+      <c r="G31">
+        <v>0.02737956452463214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007661915986430351</v>
+        <v>-0.006280632338821901</v>
       </c>
       <c r="C32">
-        <v>0.009537730489307523</v>
+        <v>0.03252839695335413</v>
       </c>
       <c r="D32">
-        <v>-0.00714276855666517</v>
+        <v>0.004769450313763367</v>
       </c>
       <c r="E32">
-        <v>0.02407543487335219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02104192574930648</v>
+      </c>
+      <c r="F32">
+        <v>-0.06879424391903451</v>
+      </c>
+      <c r="G32">
+        <v>0.04899720943812944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0121239022126032</v>
+        <v>-0.02905088501068756</v>
       </c>
       <c r="C33">
-        <v>0.02472079892300462</v>
+        <v>0.0502300496318716</v>
       </c>
       <c r="D33">
-        <v>-0.02183609652610837</v>
+        <v>-0.01415407456409683</v>
       </c>
       <c r="E33">
-        <v>-0.0273159625144509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0260917234311129</v>
+      </c>
+      <c r="F33">
+        <v>-0.02016859182244294</v>
+      </c>
+      <c r="G33">
+        <v>0.02752863434500342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005105633285086531</v>
+        <v>-0.04513375330553945</v>
       </c>
       <c r="C34">
-        <v>0.01960715393365074</v>
+        <v>0.05611660030865037</v>
       </c>
       <c r="D34">
-        <v>-0.04755465169490334</v>
+        <v>0.005609366991812782</v>
       </c>
       <c r="E34">
-        <v>0.0003534951134465088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007242773873119115</v>
+      </c>
+      <c r="F34">
+        <v>-0.02317119838203279</v>
+      </c>
+      <c r="G34">
+        <v>0.03236391945184341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01159336712096913</v>
+        <v>-0.01157826862051511</v>
       </c>
       <c r="C36">
-        <v>0.0181960196721371</v>
+        <v>0.007572984425702928</v>
       </c>
       <c r="D36">
-        <v>1.566124341915136e-05</v>
+        <v>-0.0112611866438137</v>
       </c>
       <c r="E36">
-        <v>0.001813841779927965</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002379172279463569</v>
+      </c>
+      <c r="F36">
+        <v>0.002504108353984135</v>
+      </c>
+      <c r="G36">
+        <v>0.02229069868517643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00640347302541074</v>
+        <v>-0.03342973961663603</v>
       </c>
       <c r="C38">
-        <v>0.02591449271658568</v>
+        <v>0.0260881236913338</v>
       </c>
       <c r="D38">
-        <v>-0.02173922113154439</v>
+        <v>0.008075139483033343</v>
       </c>
       <c r="E38">
-        <v>-0.001984524306862221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004147723717029862</v>
+      </c>
+      <c r="F38">
+        <v>0.0006760869263918325</v>
+      </c>
+      <c r="G38">
+        <v>0.02985517591528035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006001833875894215</v>
+        <v>-0.0323338945391823</v>
       </c>
       <c r="C39">
-        <v>-0.01362480402887226</v>
+        <v>0.08272750744840686</v>
       </c>
       <c r="D39">
-        <v>-0.09607746948402598</v>
+        <v>-0.01183147654064333</v>
       </c>
       <c r="E39">
-        <v>-0.01800460560907147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02181585967423329</v>
+      </c>
+      <c r="F39">
+        <v>-0.03682805400241703</v>
+      </c>
+      <c r="G39">
+        <v>0.02306317172201374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01089985954953849</v>
+        <v>-0.02077386673971559</v>
       </c>
       <c r="C40">
-        <v>0.01747864308020931</v>
+        <v>0.03035445858832922</v>
       </c>
       <c r="D40">
-        <v>-0.0408949581636999</v>
+        <v>-0.01310883622189605</v>
       </c>
       <c r="E40">
-        <v>-0.01576274517426512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02253721325248853</v>
+      </c>
+      <c r="F40">
+        <v>-0.01332215615973751</v>
+      </c>
+      <c r="G40">
+        <v>0.02305543899672739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004932534708140305</v>
+        <v>-0.0121607250555239</v>
       </c>
       <c r="C41">
-        <v>0.01950992095320544</v>
+        <v>-0.001241331470305322</v>
       </c>
       <c r="D41">
-        <v>0.01002105174172838</v>
+        <v>-0.003503006447826028</v>
       </c>
       <c r="E41">
-        <v>0.003755604854936511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003390565338404982</v>
+      </c>
+      <c r="F41">
+        <v>-0.001004623463950057</v>
+      </c>
+      <c r="G41">
+        <v>0.01465827720475579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09511843294783935</v>
+        <v>-0.02463183926124763</v>
       </c>
       <c r="C42">
-        <v>0.04289214547354462</v>
+        <v>0.05139726660467182</v>
       </c>
       <c r="D42">
-        <v>-0.2490088792547783</v>
+        <v>-0.1002927891034579</v>
       </c>
       <c r="E42">
-        <v>-0.2865129180977194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04272090667678632</v>
+      </c>
+      <c r="F42">
+        <v>0.09019993778997705</v>
+      </c>
+      <c r="G42">
+        <v>-0.1808519625169331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005872663016611256</v>
+        <v>-0.02849880535059425</v>
       </c>
       <c r="C43">
-        <v>0.02340401556414863</v>
+        <v>0.008402139481461181</v>
       </c>
       <c r="D43">
-        <v>0.01278684005306832</v>
+        <v>-0.003751645539924991</v>
       </c>
       <c r="E43">
-        <v>-0.0005797156664787373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004699889712163143</v>
+      </c>
+      <c r="F43">
+        <v>0.001077842955781545</v>
+      </c>
+      <c r="G43">
+        <v>0.02024645542381349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003264237815722357</v>
+        <v>-0.01593339652878465</v>
       </c>
       <c r="C44">
-        <v>-0.0005319625231844604</v>
+        <v>0.04707221705382733</v>
       </c>
       <c r="D44">
-        <v>-0.02606234883175801</v>
+        <v>-0.006457787479122899</v>
       </c>
       <c r="E44">
-        <v>0.002207457144080162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01687351788206807</v>
+      </c>
+      <c r="F44">
+        <v>-0.01763470617597633</v>
+      </c>
+      <c r="G44">
+        <v>0.03595596115924616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01029881674007284</v>
+        <v>-0.005091580989639098</v>
       </c>
       <c r="C46">
-        <v>0.01553917088253336</v>
+        <v>0.01750335773707148</v>
       </c>
       <c r="D46">
-        <v>-0.01296474625839172</v>
+        <v>-0.01153021859891922</v>
       </c>
       <c r="E46">
-        <v>-0.001888132480004712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>3.447831341432062e-05</v>
+      </c>
+      <c r="F46">
+        <v>0.01416450640934583</v>
+      </c>
+      <c r="G46">
+        <v>0.02587486370002709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0005759069298734416</v>
+        <v>-0.07436283682287553</v>
       </c>
       <c r="C47">
-        <v>0.06346090743849257</v>
+        <v>0.06391247641009995</v>
       </c>
       <c r="D47">
-        <v>-0.04295854802398776</v>
+        <v>0.005426845006681618</v>
       </c>
       <c r="E47">
-        <v>-0.007855665489686366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01791708794970213</v>
+      </c>
+      <c r="F47">
+        <v>0.06184124786956045</v>
+      </c>
+      <c r="G47">
+        <v>0.02501324670750238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002410486472225633</v>
+        <v>-0.01983999498006751</v>
       </c>
       <c r="C48">
-        <v>0.02447658688590183</v>
+        <v>0.01088880186585257</v>
       </c>
       <c r="D48">
-        <v>-0.008514893087087539</v>
+        <v>-0.0008467369968139585</v>
       </c>
       <c r="E48">
-        <v>-0.001018656630221249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002770336497767258</v>
+      </c>
+      <c r="F48">
+        <v>0.01417639118207619</v>
+      </c>
+      <c r="G48">
+        <v>0.02598510790091398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001979492453461689</v>
+        <v>-0.079758883206949</v>
       </c>
       <c r="C50">
-        <v>0.05437857072030547</v>
+        <v>0.06660160534223793</v>
       </c>
       <c r="D50">
-        <v>-0.05640338621541941</v>
+        <v>0.004299139812487591</v>
       </c>
       <c r="E50">
-        <v>0.01738189133698565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01851305888467075</v>
+      </c>
+      <c r="F50">
+        <v>0.05505218875856553</v>
+      </c>
+      <c r="G50">
+        <v>0.04512829800707478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006764896705201203</v>
+        <v>-0.01168721763494309</v>
       </c>
       <c r="C51">
-        <v>0.01592840862757217</v>
+        <v>0.02778131582916142</v>
       </c>
       <c r="D51">
-        <v>0.01419897249870022</v>
+        <v>-0.008913279242457436</v>
       </c>
       <c r="E51">
-        <v>0.01225305190430778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01163344608406607</v>
+      </c>
+      <c r="F51">
+        <v>-0.0277526582587647</v>
+      </c>
+      <c r="G51">
+        <v>0.0480949774648381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003497617396878899</v>
+        <v>-0.09509408626203394</v>
       </c>
       <c r="C53">
-        <v>0.08770420912394938</v>
+        <v>0.07941081786049012</v>
       </c>
       <c r="D53">
-        <v>-0.09491977423786001</v>
+        <v>0.006007936059207851</v>
       </c>
       <c r="E53">
-        <v>-0.00808213721988184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04303471476787876</v>
+      </c>
+      <c r="F53">
+        <v>0.06352867692943985</v>
+      </c>
+      <c r="G53">
+        <v>0.02393487409581467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001816450023648248</v>
+        <v>-0.02993652047314126</v>
       </c>
       <c r="C54">
-        <v>0.03589957087152501</v>
+        <v>0.006757196737093927</v>
       </c>
       <c r="D54">
-        <v>0.01169432759846506</v>
+        <v>0.003805469893414729</v>
       </c>
       <c r="E54">
-        <v>0.01439821620237521</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003430020773357769</v>
+      </c>
+      <c r="F54">
+        <v>0.00525570209126954</v>
+      </c>
+      <c r="G54">
+        <v>0.03305910548783461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001137860043271729</v>
+        <v>-0.07338272138640729</v>
       </c>
       <c r="C55">
-        <v>0.06216546314449307</v>
+        <v>0.07344907783504215</v>
       </c>
       <c r="D55">
-        <v>-0.08538328362420439</v>
+        <v>0.004951855719920818</v>
       </c>
       <c r="E55">
-        <v>-0.01724926903234685</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03292061917913425</v>
+      </c>
+      <c r="F55">
+        <v>0.06002966110472982</v>
+      </c>
+      <c r="G55">
+        <v>0.01032030122708248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0008799874815298679</v>
+        <v>-0.1457389759220223</v>
       </c>
       <c r="C56">
-        <v>0.1147740909121066</v>
+        <v>0.1025273138344551</v>
       </c>
       <c r="D56">
-        <v>-0.1267363473709641</v>
+        <v>0.01420493694029653</v>
       </c>
       <c r="E56">
-        <v>-0.02287249819847296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04345164481099174</v>
+      </c>
+      <c r="F56">
+        <v>0.1021968608074423</v>
+      </c>
+      <c r="G56">
+        <v>0.001521174743418716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02265900728550163</v>
+        <v>-0.01220096600975509</v>
       </c>
       <c r="C57">
-        <v>0.0145333580374338</v>
+        <v>0.01128867049353378</v>
       </c>
       <c r="D57">
-        <v>-0.03931335964510223</v>
+        <v>-0.02369667965130718</v>
       </c>
       <c r="E57">
-        <v>-0.00913103904394091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0301433356366974</v>
+      </c>
+      <c r="F57">
+        <v>-0.01271599586303825</v>
+      </c>
+      <c r="G57">
+        <v>0.02114490736551081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.006996702809110149</v>
+        <v>-0.06733532632146803</v>
       </c>
       <c r="C58">
-        <v>0.04641798770755676</v>
+        <v>0.05936098904678624</v>
       </c>
       <c r="D58">
-        <v>-0.05999567431357546</v>
+        <v>-0.02041108031169596</v>
       </c>
       <c r="E58">
-        <v>-0.1485015024649188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9244639450655231</v>
+      </c>
+      <c r="F58">
+        <v>0.2957308375894539</v>
+      </c>
+      <c r="G58">
+        <v>0.02989958652607694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0216259488154729</v>
+        <v>-0.1522915356646975</v>
       </c>
       <c r="C59">
-        <v>0.2190926162722854</v>
+        <v>-0.2115995083403942</v>
       </c>
       <c r="D59">
-        <v>0.1940692614438491</v>
+        <v>0.01601728266411695</v>
       </c>
       <c r="E59">
-        <v>0.01163348713851778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01510369879585225</v>
+      </c>
+      <c r="F59">
+        <v>-0.00969611924030625</v>
+      </c>
+      <c r="G59">
+        <v>0.02195012912417041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02802286738686122</v>
+        <v>-0.28931930305422</v>
       </c>
       <c r="C60">
-        <v>0.1621906063496173</v>
+        <v>0.09012532304638857</v>
       </c>
       <c r="D60">
-        <v>-0.07832850892315811</v>
+        <v>-0.008590704829980858</v>
       </c>
       <c r="E60">
-        <v>-0.05778958175480346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03792387772114332</v>
+      </c>
+      <c r="F60">
+        <v>-0.3838720766661811</v>
+      </c>
+      <c r="G60">
+        <v>-0.09362843760564529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003003864424991378</v>
+        <v>-0.03323887447167917</v>
       </c>
       <c r="C61">
-        <v>0.01051352427013031</v>
+        <v>0.06403542948176331</v>
       </c>
       <c r="D61">
-        <v>-0.06590782274266746</v>
+        <v>-0.005180499354942755</v>
       </c>
       <c r="E61">
-        <v>-0.01244915033908905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0122685779592015</v>
+      </c>
+      <c r="F61">
+        <v>-0.02036265002586033</v>
+      </c>
+      <c r="G61">
+        <v>0.02236632009357119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007627225955719974</v>
+        <v>-0.01514725875198184</v>
       </c>
       <c r="C63">
-        <v>0.01241126648992429</v>
+        <v>0.02749854809767844</v>
       </c>
       <c r="D63">
-        <v>-0.0142595252954982</v>
+        <v>-0.007996110153002509</v>
       </c>
       <c r="E63">
-        <v>0.003528892930694453</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007142029496975264</v>
+      </c>
+      <c r="F63">
+        <v>0.01327200877373545</v>
+      </c>
+      <c r="G63">
+        <v>0.03191720282299006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006344458896295436</v>
+        <v>-0.04901743113086455</v>
       </c>
       <c r="C64">
-        <v>0.0313181143711057</v>
+        <v>0.03773240137352648</v>
       </c>
       <c r="D64">
-        <v>-0.06303770573529777</v>
+        <v>-0.00462204718974536</v>
       </c>
       <c r="E64">
-        <v>-0.01752792442945163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006194597561256584</v>
+      </c>
+      <c r="F64">
+        <v>-0.006324120025307676</v>
+      </c>
+      <c r="G64">
+        <v>0.01980186047135558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01800193357423872</v>
+        <v>-0.08078279142592239</v>
       </c>
       <c r="C65">
-        <v>0.03435955773792086</v>
+        <v>0.06668737289484931</v>
       </c>
       <c r="D65">
-        <v>-0.09439206586221253</v>
+        <v>-0.01533656043127396</v>
       </c>
       <c r="E65">
-        <v>-0.0119495491897137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009119065947848217</v>
+      </c>
+      <c r="F65">
+        <v>-0.03891657188526593</v>
+      </c>
+      <c r="G65">
+        <v>0.008700510815874106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005627160501169448</v>
+        <v>-0.0538734622008389</v>
       </c>
       <c r="C66">
-        <v>-0.002539814941278403</v>
+        <v>0.1160524394537598</v>
       </c>
       <c r="D66">
-        <v>-0.1158206726309568</v>
+        <v>-0.01121657159219041</v>
       </c>
       <c r="E66">
-        <v>-0.03740898541209669</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02400285245026572</v>
+      </c>
+      <c r="F66">
+        <v>-0.04485467873223375</v>
+      </c>
+      <c r="G66">
+        <v>0.01309180088798692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001593062796687739</v>
+        <v>-0.05691105392829925</v>
       </c>
       <c r="C67">
-        <v>0.04446054083054874</v>
+        <v>0.03042541441076544</v>
       </c>
       <c r="D67">
-        <v>-0.02244659958985554</v>
+        <v>0.006557258541838777</v>
       </c>
       <c r="E67">
-        <v>-0.004339551420175031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002537955893600762</v>
+      </c>
+      <c r="F67">
+        <v>0.001895448111305317</v>
+      </c>
+      <c r="G67">
+        <v>0.02863732019608334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03806683933084708</v>
+        <v>-0.137074996102992</v>
       </c>
       <c r="C68">
-        <v>0.1837283636668003</v>
+        <v>-0.2716265445220326</v>
       </c>
       <c r="D68">
-        <v>0.1856076494001195</v>
+        <v>-0.001681266240103748</v>
       </c>
       <c r="E68">
-        <v>0.01425080207444484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01650451528826691</v>
+      </c>
+      <c r="F68">
+        <v>0.01784419450342602</v>
+      </c>
+      <c r="G68">
+        <v>0.02083816221179777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00329229967700966</v>
+        <v>-0.07816262307113592</v>
       </c>
       <c r="C69">
-        <v>0.04986641748033201</v>
+        <v>0.06502307409221991</v>
       </c>
       <c r="D69">
-        <v>-0.05004556279301216</v>
+        <v>0.009440345915393495</v>
       </c>
       <c r="E69">
-        <v>-0.004405019091862351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03488830228163613</v>
+      </c>
+      <c r="F69">
+        <v>0.04193560550552529</v>
+      </c>
+      <c r="G69">
+        <v>0.02639786330411367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02670395109426972</v>
+        <v>-0.1315939073375054</v>
       </c>
       <c r="C71">
-        <v>0.1663802074758558</v>
+        <v>-0.2272536959508018</v>
       </c>
       <c r="D71">
-        <v>0.1629592131156004</v>
+        <v>0.007040325122133605</v>
       </c>
       <c r="E71">
-        <v>0.02261452168256966</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02566163929741945</v>
+      </c>
+      <c r="F71">
+        <v>0.01940307874615337</v>
+      </c>
+      <c r="G71">
+        <v>0.0341403155691285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0025156624874192</v>
+        <v>-0.08348395922152237</v>
       </c>
       <c r="C72">
-        <v>0.06594746352483302</v>
+        <v>0.07700646266723117</v>
       </c>
       <c r="D72">
-        <v>-0.1352146499320661</v>
+        <v>0.009021984430321137</v>
       </c>
       <c r="E72">
-        <v>-0.04630056731816731</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.008885580538196105</v>
+      </c>
+      <c r="F72">
+        <v>-0.04230833473675784</v>
+      </c>
+      <c r="G72">
+        <v>-0.0009054245848215589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04168043723969091</v>
+        <v>-0.3990489980813078</v>
       </c>
       <c r="C73">
-        <v>0.1989385451865977</v>
+        <v>0.1064221686536803</v>
       </c>
       <c r="D73">
-        <v>-0.1414310544955339</v>
+        <v>-0.01332213039851258</v>
       </c>
       <c r="E73">
-        <v>-0.1302807639546758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1054564028622633</v>
+      </c>
+      <c r="F73">
+        <v>-0.5357352677081439</v>
+      </c>
+      <c r="G73">
+        <v>-0.1535229837893567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.000674217395435311</v>
+        <v>-0.1166415510734689</v>
       </c>
       <c r="C74">
-        <v>0.1027340151891433</v>
+        <v>0.1181196454573684</v>
       </c>
       <c r="D74">
-        <v>-0.1224748427434343</v>
+        <v>0.01060041888114299</v>
       </c>
       <c r="E74">
-        <v>-0.02982832298470509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03963226008055007</v>
+      </c>
+      <c r="F74">
+        <v>0.06968816631805028</v>
+      </c>
+      <c r="G74">
+        <v>0.02390140881222892</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>3.973348921682335e-05</v>
+        <v>-0.2615058354810286</v>
       </c>
       <c r="C75">
-        <v>0.2342055092565773</v>
+        <v>0.1481498465385797</v>
       </c>
       <c r="D75">
-        <v>-0.2106605124587903</v>
+        <v>0.03236651599068664</v>
       </c>
       <c r="E75">
-        <v>-0.05874972681960894</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08387455900994138</v>
+      </c>
+      <c r="F75">
+        <v>0.214653370497692</v>
+      </c>
+      <c r="G75">
+        <v>-0.0319929280552242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005046294981930587</v>
+        <v>-0.1366130697676757</v>
       </c>
       <c r="C76">
-        <v>0.1808897635709928</v>
+        <v>0.1229025289817198</v>
       </c>
       <c r="D76">
-        <v>-0.1947211293134972</v>
+        <v>0.02230920259476016</v>
       </c>
       <c r="E76">
-        <v>-0.02436782742952453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07532035286336719</v>
+      </c>
+      <c r="F76">
+        <v>0.1287931297551553</v>
+      </c>
+      <c r="G76">
+        <v>0.0140099801885857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01260519697800472</v>
+        <v>-0.06211566679039227</v>
       </c>
       <c r="C77">
-        <v>0.01942606108281398</v>
+        <v>0.06099693579299492</v>
       </c>
       <c r="D77">
-        <v>-0.06075567454948067</v>
+        <v>-0.01247474225973864</v>
       </c>
       <c r="E77">
-        <v>-0.01106935912722767</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04670968182327409</v>
+      </c>
+      <c r="F77">
+        <v>-0.008386985910872786</v>
+      </c>
+      <c r="G77">
+        <v>0.05291422204834724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005110517894034375</v>
+        <v>-0.04182864099707797</v>
       </c>
       <c r="C78">
-        <v>0.0209299437609439</v>
+        <v>0.05197116253896569</v>
       </c>
       <c r="D78">
-        <v>-0.06484337181600168</v>
+        <v>-0.005571960569850157</v>
       </c>
       <c r="E78">
-        <v>-0.01310155709789766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02509061159050523</v>
+      </c>
+      <c r="F78">
+        <v>-0.03396777407968164</v>
+      </c>
+      <c r="G78">
+        <v>0.03250709449358174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01504243864131618</v>
+        <v>-0.06160546357614179</v>
       </c>
       <c r="C80">
-        <v>0.1606861493868692</v>
+        <v>0.06804490327819965</v>
       </c>
       <c r="D80">
-        <v>-0.2638892096754523</v>
+        <v>-0.01213211934284021</v>
       </c>
       <c r="E80">
-        <v>0.8995475787504311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04658547903816541</v>
+      </c>
+      <c r="F80">
+        <v>-0.07616596830881688</v>
+      </c>
+      <c r="G80">
+        <v>0.91485028302333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0007910328768446778</v>
+        <v>-0.1445246709065877</v>
       </c>
       <c r="C81">
-        <v>0.1500215059671659</v>
+        <v>0.09387267909220788</v>
       </c>
       <c r="D81">
-        <v>-0.1389512525674831</v>
+        <v>0.01640901153309828</v>
       </c>
       <c r="E81">
-        <v>-0.02820612726189409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04936853137790744</v>
+      </c>
+      <c r="F81">
+        <v>0.1317620315041659</v>
+      </c>
+      <c r="G81">
+        <v>0.01785684292306345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05281348631812095</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03612567198080788</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00304025123952138</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01853406379807147</v>
+      </c>
+      <c r="F82">
+        <v>0.00477536530471488</v>
+      </c>
+      <c r="G82">
+        <v>-0.006865595128489972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00654743691466135</v>
+        <v>-0.02879777364310111</v>
       </c>
       <c r="C83">
-        <v>0.02855130188736212</v>
+        <v>0.02131952733376847</v>
       </c>
       <c r="D83">
-        <v>-0.02340456057161431</v>
+        <v>-0.005153627766591028</v>
       </c>
       <c r="E83">
-        <v>-0.009158029470425639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02770620295658183</v>
+      </c>
+      <c r="F83">
+        <v>-0.01454874077307609</v>
+      </c>
+      <c r="G83">
+        <v>0.02195991583480461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008788409060233973</v>
+        <v>-0.23676704156245</v>
       </c>
       <c r="C85">
-        <v>0.1872640981904447</v>
+        <v>0.1501518979525319</v>
       </c>
       <c r="D85">
-        <v>-0.22441345535042</v>
+        <v>0.02110614642892144</v>
       </c>
       <c r="E85">
-        <v>-0.07073362357267059</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1327676911168492</v>
+      </c>
+      <c r="F85">
+        <v>0.1920831638781231</v>
+      </c>
+      <c r="G85">
+        <v>-0.060001142956961</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005334464911629796</v>
+        <v>-0.01059949487419527</v>
       </c>
       <c r="C86">
-        <v>0.009093928180218029</v>
+        <v>0.0212486294894259</v>
       </c>
       <c r="D86">
-        <v>-0.006740201392882374</v>
+        <v>-0.009652101100391604</v>
       </c>
       <c r="E86">
-        <v>-0.02011378278318159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03847976194384035</v>
+      </c>
+      <c r="F86">
+        <v>-0.01192207164152548</v>
+      </c>
+      <c r="G86">
+        <v>0.04740563599676186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006132691453194249</v>
+        <v>-0.0135779539013717</v>
       </c>
       <c r="C87">
-        <v>0.004427291200594419</v>
+        <v>0.02776824217059225</v>
       </c>
       <c r="D87">
-        <v>-0.03020785839047897</v>
+        <v>-0.0117254767196579</v>
       </c>
       <c r="E87">
-        <v>-0.004930362543558248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08460462923062453</v>
+      </c>
+      <c r="F87">
+        <v>-0.04640987364368973</v>
+      </c>
+      <c r="G87">
+        <v>0.04393479076850533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02576272971288295</v>
+        <v>-0.08747134342974734</v>
       </c>
       <c r="C88">
-        <v>0.04347770102273139</v>
+        <v>0.06109367981759181</v>
       </c>
       <c r="D88">
-        <v>-0.01772705834558923</v>
+        <v>-0.02130669671632761</v>
       </c>
       <c r="E88">
-        <v>-0.004307986320581852</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01769613467504759</v>
+      </c>
+      <c r="F88">
+        <v>0.01554549559855083</v>
+      </c>
+      <c r="G88">
+        <v>0.02643024377542059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05081682360034721</v>
+        <v>-0.2221889683851387</v>
       </c>
       <c r="C89">
-        <v>0.316583128624445</v>
+        <v>-0.3664359627565165</v>
       </c>
       <c r="D89">
-        <v>0.2945729875964115</v>
+        <v>0.008038241749231685</v>
       </c>
       <c r="E89">
-        <v>0.01010539965397975</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0181790597741507</v>
+      </c>
+      <c r="F89">
+        <v>0.03350317127551655</v>
+      </c>
+      <c r="G89">
+        <v>0.03299834734601693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03787468645680041</v>
+        <v>-0.1914483431215279</v>
       </c>
       <c r="C90">
-        <v>0.2321828749516106</v>
+        <v>-0.3350136366954857</v>
       </c>
       <c r="D90">
-        <v>0.2628051110958138</v>
+        <v>0.01186138579281242</v>
       </c>
       <c r="E90">
-        <v>0.001725686479630727</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.005842382184234155</v>
+      </c>
+      <c r="F90">
+        <v>0.0459300569113141</v>
+      </c>
+      <c r="G90">
+        <v>-0.004326025231072476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0003996808077133114</v>
+        <v>-0.2082848317734818</v>
       </c>
       <c r="C91">
-        <v>0.2063989672517093</v>
+        <v>0.1385507705087591</v>
       </c>
       <c r="D91">
-        <v>-0.2137793496761069</v>
+        <v>0.02521412994878235</v>
       </c>
       <c r="E91">
-        <v>-0.05232483679417832</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09616846840186148</v>
+      </c>
+      <c r="F91">
+        <v>0.1844326282331974</v>
+      </c>
+      <c r="G91">
+        <v>0.002399145975097635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.004956121531284217</v>
+        <v>-0.2107991942853704</v>
       </c>
       <c r="C92">
-        <v>0.3545639284039004</v>
+        <v>-0.2664396760154363</v>
       </c>
       <c r="D92">
-        <v>0.173525474297213</v>
+        <v>0.05358608820737837</v>
       </c>
       <c r="E92">
-        <v>-0.002329852324166099</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01039347767484162</v>
+      </c>
+      <c r="F92">
+        <v>0.1224425430421407</v>
+      </c>
+      <c r="G92">
+        <v>0.07095370154425976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03633788296140499</v>
+        <v>-0.2179452135388711</v>
       </c>
       <c r="C93">
-        <v>0.2830691177563055</v>
+        <v>-0.3315731263376306</v>
       </c>
       <c r="D93">
-        <v>0.2667362215836713</v>
+        <v>0.01860314500383222</v>
       </c>
       <c r="E93">
-        <v>-0.0192988014453746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003365341345686447</v>
+      </c>
+      <c r="F93">
+        <v>0.03008300280901042</v>
+      </c>
+      <c r="G93">
+        <v>-0.002998188407278978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01975286507093622</v>
+        <v>-0.2801192772335281</v>
       </c>
       <c r="C94">
-        <v>0.244856267608666</v>
+        <v>0.1620391682672011</v>
       </c>
       <c r="D94">
-        <v>-0.2007040434414527</v>
+        <v>0.01483266296824222</v>
       </c>
       <c r="E94">
-        <v>-0.1036721410267084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1423047228732038</v>
+      </c>
+      <c r="F94">
+        <v>0.38316537213736</v>
+      </c>
+      <c r="G94">
+        <v>-0.1143119611376267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006715871735118786</v>
+        <v>-0.08218794601504183</v>
       </c>
       <c r="C95">
-        <v>0.0449479836251559</v>
+        <v>0.07617846397012373</v>
       </c>
       <c r="D95">
-        <v>-0.05767089291387882</v>
+        <v>0.007100993625760778</v>
       </c>
       <c r="E95">
-        <v>-0.1099301106495138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09547856588890415</v>
+      </c>
+      <c r="F95">
+        <v>-0.1522392693885467</v>
+      </c>
+      <c r="G95">
+        <v>-0.04056398634957784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004336729133362816</v>
+        <v>-0.2080636930298269</v>
       </c>
       <c r="C98">
-        <v>0.1635176718533344</v>
+        <v>0.04924277422866544</v>
       </c>
       <c r="D98">
-        <v>-0.1047611456028794</v>
+        <v>0.01613554323623545</v>
       </c>
       <c r="E98">
-        <v>-0.07889228124619399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.08666643977394743</v>
+      </c>
+      <c r="F98">
+        <v>-0.2420830297376436</v>
+      </c>
+      <c r="G98">
+        <v>-0.04430063804184872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006983153327952565</v>
+        <v>-0.01335860970376068</v>
       </c>
       <c r="C101">
-        <v>0.01880950007002725</v>
+        <v>0.02074307263339445</v>
       </c>
       <c r="D101">
-        <v>-0.009782981879735191</v>
+        <v>-0.006823513021741645</v>
       </c>
       <c r="E101">
-        <v>0.007038006105736214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.006214676019606786</v>
+      </c>
+      <c r="F101">
+        <v>0.0123958696397792</v>
+      </c>
+      <c r="G101">
+        <v>0.02889220347592325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01365755993073031</v>
+        <v>-0.1248484363506908</v>
       </c>
       <c r="C102">
-        <v>0.1203344709974787</v>
+        <v>0.08243884444865035</v>
       </c>
       <c r="D102">
-        <v>-0.1081505151827436</v>
+        <v>0.0002469327301034524</v>
       </c>
       <c r="E102">
-        <v>-0.02853353903479892</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04163301088793501</v>
+      </c>
+      <c r="F102">
+        <v>0.05992762055144677</v>
+      </c>
+      <c r="G102">
+        <v>-0.005039829235815143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002056960615367589</v>
+        <v>-0.004220342433977733</v>
       </c>
       <c r="C103">
-        <v>0.0171227892893627</v>
+        <v>0.005551237229063324</v>
       </c>
       <c r="D103">
-        <v>-0.02648100302787518</v>
+        <v>-0.0006768653562363933</v>
       </c>
       <c r="E103">
-        <v>0.01142717171534168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0001072815356643882</v>
+      </c>
+      <c r="F103">
+        <v>0.008240351328510063</v>
+      </c>
+      <c r="G103">
+        <v>0.01861421947734043</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.98582280134373</v>
+        <v>-0.03839122958885381</v>
       </c>
       <c r="C104">
-        <v>-0.09627023897629843</v>
+        <v>-0.04330915933372132</v>
       </c>
       <c r="D104">
-        <v>0.0006235699682866593</v>
+        <v>-0.9862633370566359</v>
       </c>
       <c r="E104">
-        <v>0.02480529872051956</v>
+        <v>0.04756911792909938</v>
+      </c>
+      <c r="F104">
+        <v>0.03698128095935013</v>
+      </c>
+      <c r="G104">
+        <v>-0.002999116232741468</v>
       </c>
     </row>
   </sheetData>
